--- a/Artigos/fichamento.xlsx
+++ b/Artigos/fichamento.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Predicting Students Dropout" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluating performance and drop" sheetId="3" r:id="rId2"/>
+    <sheet name="Predicting Students Dropout" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Predicting Students Dropout'!$B$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predicting Students Dropout'!$B$1:$B$15</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Nome</t>
   </si>
@@ -225,6 +226,33 @@
   </si>
   <si>
     <t>Data quality assurance; levar em consideração as mudanças no curso no decorrer do período em que os dados foram coletados(foi o que entendi, ver 5.paragrafo[3])</t>
+  </si>
+  <si>
+    <t>Evaluating performance and dropouts of undergraduates using educational data mining</t>
+  </si>
+  <si>
+    <t>ML em 6 cursos; 'arquitetura'; kettle</t>
+  </si>
+  <si>
+    <t>94.1 a 09.1</t>
+  </si>
+  <si>
+    <t>6 training sets, 1 para cada curso, agrupando os dados de anos ímpares; 48 test datasets, 1 para cada par (curso, ano), anos pares; foram utilizados informações apenas do primeiro semestre, com as classes progress when a student finished the semester with a minimum one course pass and no progress when all courses results had low grade or absent fail.</t>
+  </si>
+  <si>
+    <t>Naive Bayes, MLP, SVM poly, SVM rbf e DT</t>
+  </si>
+  <si>
+    <t>train-test, accuracy, Kappa, True positive rate</t>
+  </si>
+  <si>
+    <t>ver artigo. Accs de 100%, tpr de 100%, fpr de 100%!!</t>
+  </si>
+  <si>
+    <t>progress when a student finished the semester with a minimum one course pass and no progress when all courses results had low grade or absent fail.</t>
+  </si>
+  <si>
+    <t>~300 a 2k</t>
   </si>
 </sst>
 </file>
@@ -316,6 +344,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>267163</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3315163" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +847,35 @@
       </c>
       <c r="N6" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -804,6 +910,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Artigos/fichamento.xlsx
+++ b/Artigos/fichamento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>Nome</t>
   </si>
@@ -253,13 +253,19 @@
   </si>
   <si>
     <t>~300 a 2k</t>
+  </si>
+  <si>
+    <t>Educational Data Mining with Focus on Dropout Rates</t>
+  </si>
+  <si>
+    <t>Identificação dos Fatores que Influenciam a Evasão em Cursos de Graduação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,6 +340,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +893,16 @@
       </c>
       <c r="N7" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Artigos/fichamento.xlsx
+++ b/Artigos/fichamento.xlsx
@@ -8,18 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluating performance and drop" sheetId="3" r:id="rId2"/>
-    <sheet name="Predicting Students Dropout" sheetId="2" r:id="rId3"/>
+    <sheet name="Predicting Students Dropout" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluating performance and drop" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predicting Students Dropout'!$B$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Predicting Students Dropout'!$B$1:$B$15</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Nome</t>
   </si>
@@ -135,42 +135,18 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Used only to check data sanity" </t>
-  </si>
-  <si>
     <t>Major changes in Dutch education system, {1..4, ’n/a’}</t>
   </si>
   <si>
     <t>The pre-university education curriculum, {1..5, ’n/a’}</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of courses taken." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ n/a, poor, average, above average, good, excellent }" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ n/a, &lt; 3, 3, &gt;3 }" </t>
-  </si>
-  <si>
     <t>As VWO mean</t>
   </si>
   <si>
     <t>{n/a, 0,1,2}</t>
   </si>
   <si>
-    <t xml:space="preserve">As VWO mean" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{n/a, electrical, technical, other}" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same categories as VWO Year" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{n/a, &lt; -1, -1, 0, 1, &gt;1 }" </t>
-  </si>
-  <si>
     <t>{-1, 1}</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>94.1 a 09.1</t>
   </si>
   <si>
-    <t>6 training sets, 1 para cada curso, agrupando os dados de anos ímpares; 48 test datasets, 1 para cada par (curso, ano), anos pares; foram utilizados informações apenas do primeiro semestre, com as classes progress when a student finished the semester with a minimum one course pass and no progress when all courses results had low grade or absent fail.</t>
-  </si>
-  <si>
     <t>Naive Bayes, MLP, SVM poly, SVM rbf e DT</t>
   </si>
   <si>
@@ -259,6 +232,30 @@
   </si>
   <si>
     <t>Identificação dos Fatores que Influenciam a Evasão em Cursos de Graduação</t>
+  </si>
+  <si>
+    <t>Used only to check data sanity</t>
+  </si>
+  <si>
+    <t>The number of courses taken.</t>
+  </si>
+  <si>
+    <t>{ n/a, poor, average, above average, good, excellent }</t>
+  </si>
+  <si>
+    <t>{ n/a, &lt; 3, 3, &gt;3 }</t>
+  </si>
+  <si>
+    <t>{n/a, electrical, technical, other}</t>
+  </si>
+  <si>
+    <t>Same categories as VWO Year</t>
+  </si>
+  <si>
+    <t>{n/a, &lt; -1, -1, 0, 1, &gt;1 }</t>
+  </si>
+  <si>
+    <t>6 training sets, 1 para cada curso, agrupando os dados de anos pares; 48 test datasets, 1 para cada par (curso, ano), anos ímpares; foram utilizados informações apenas do primeiro semestre, com as classes progress when a student finished the semester with a minimum one course pass and no progress when all courses results had low grade or absent fail.</t>
   </si>
 </sst>
 </file>
@@ -701,208 +698,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="47.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.42578125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>67</v>
+      <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2009</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>648</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="2">
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
         <v>495</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G4" s="2">
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
         <v>516</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G5" s="2">
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
         <v>516</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -937,25 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1104,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1140,4 +1123,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>